--- a/biology/Botanique/Philippe_de_Vilmorin/Philippe_de_Vilmorin.xlsx
+++ b/biology/Botanique/Philippe_de_Vilmorin/Philippe_de_Vilmorin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Marie Philippe Levêque de Vilmorin, plus communément appelé Philippe de Vilmorin, né le 21 mai 1872 à Verrières-le-Buisson et mort dans la même commune le 29 juin 1917, est un botaniste français. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe de Vilmorin est issu de la célèbre famille de botanistes et grainetiers.
 </t>
@@ -542,17 +556,19 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De son mariage en 1900 avec Berthe Marie Mélanie de Gaufridy de Dortan (qui sera maîtresse du roi Alphonse XIII d'Espagne[1]), naîtront six enfants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De son mariage en 1900 avec Berthe Marie Mélanie de Gaufridy de Dortan (qui sera maîtresse du roi Alphonse XIII d'Espagne), naîtront six enfants :
 Marie-Pierre de Vilmorin (Mapie de Toulouse-Lautrec) (1901-1972),
 Louise de Vilmorin (1902-1969),
 Henry de Vilmorin (1903-1961),
 Olivier de Vilmorin (1904-1962),
-Roger de Vilmorin (1905-1980), fils naturel de Mélanie de Vilmorin et d'Alphonse XIII d'Espagne[2],[3]. Il a toutefois été reconnu par Philippe de Vilmorin.
-André de Vilmorin (1907-1987)[4].
-Il crée dans les terres du château familial (famille de son épouse) d'Audour, l'arboretum de Pézanin[5] en 1903.
-Philippe de Vilmorin était un oncle du résistant Honoré d'Estienne d'Orves (1901-1941)[6].
+Roger de Vilmorin (1905-1980), fils naturel de Mélanie de Vilmorin et d'Alphonse XIII d'Espagne,. Il a toutefois été reconnu par Philippe de Vilmorin.
+André de Vilmorin (1907-1987).
+Il crée dans les terres du château familial (famille de son épouse) d'Audour, l'arboretum de Pézanin en 1903.
+Philippe de Vilmorin était un oncle du résistant Honoré d'Estienne d'Orves (1901-1941).
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Philippe de Vilmorin et les iris</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe de Vilmorin était un grand passionné d'iris de jardin[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe de Vilmorin était un grand passionné d'iris de jardin.
 Avec Séraphin Mottet, il a fait puissamment progresser l’hybridation des iris à barbes en introduisant à grande échelle l’utilisation des grands iris tétraploïdes rapportés du Moyen-Orient. Après la mort de Philippe de Vilmorin en 1917, la maison  Vilmorin-Andrieux a continué de produire des iris, mais uniquement dans un but commercial, jusqu’à la cessation de cette partie de son activité. « Mais le nom de Vilmorin est et restera à jamais incandescent dans le cœur des hommes et des femmes qui aiment les iris » (Mahan).
 </t>
         </is>
@@ -613,9 +631,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (11 mars 1908)[8]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (11 mars 1908)
  Commandeur de l'Ordre du Mérite civil (Bulgarie)
  Officier de l'ordre des Saints-Maurice-et-Lazare
 (Italie)
